--- a/excercises simple/7.Basic ESP.xlsx
+++ b/excercises simple/7.Basic ESP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
-  <workbookPr updateLinks="always" codeName="ЭтаКнига" hidePivotFieldList="1"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <workbookPr updateLinks="always" codeName="Workbook________" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rnt\unifloc_vba\Упражнения простые\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rnt\unifloc_vba\excercises simple\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{515F024D-982C-4133-861C-38114F9B5F40}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{140158D2-D9AD-4ED5-B371-E402AD3CBEB8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="12103" tabRatio="591" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="591" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ESP" sheetId="112" r:id="rId1"/>
@@ -922,7 +922,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1442,7 +1442,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1480,7 +1480,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1493377664"/>
@@ -1560,7 +1560,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1598,7 +1598,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1633602352"/>
@@ -1664,7 +1664,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1702,7 +1702,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="731450031"/>
@@ -1759,7 +1759,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1796,7 +1796,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1873,7 +1873,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2393,7 +2393,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2431,7 +2431,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1493377664"/>
@@ -2511,7 +2511,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2549,7 +2549,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1633602352"/>
@@ -2615,7 +2615,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2653,7 +2653,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="731447951"/>
@@ -2710,7 +2710,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2747,7 +2747,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2824,7 +2824,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2957,58 +2957,58 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="27"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>80.997704365613529</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>80.664476310836065</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>80.033026681281072</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>78.492659389830322</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>75.962747990346898</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>72.761292151579667</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>69.091007613062402</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>65.064479864165051</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>60.735240164768442</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>56.120204478928763</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>51.213670971469391</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>45.994443329823369</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>40.428774104238883</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>34.470900366546324</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>28.062059313354602</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>21.12833289968485</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>13.577323065370706</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>5.2933241746071076</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0</c:v>
@@ -3170,58 +3170,58 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="27"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>193.167565601185</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>192.05573901064798</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>189.42368584622744</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>187.19949892065779</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>185.6523807450929</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>184.03755305835637</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>181.79508307349863</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>178.56817870140918</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>174.11287816676179</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>168.27681039834169</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>161.02402806434631</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>152.30124915460007</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>142.09475198631787</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>130.33158789495064</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>116.75652711741765</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>100.69240204384937</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>80.266429005822687</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>46.934496505431184</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0</c:v>
@@ -3330,7 +3330,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3368,7 +3368,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1493377664"/>
@@ -3449,7 +3449,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3487,7 +3487,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1633602352"/>
@@ -3529,7 +3529,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3566,7 +3566,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5845,40 +5845,40 @@
   </sheetPr>
   <dimension ref="A1:H88"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.45" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="12.3828125" customWidth="1"/>
-    <col min="3" max="3" width="10.53515625" customWidth="1"/>
-    <col min="4" max="4" width="9.84375" customWidth="1"/>
-    <col min="5" max="5" width="11.3046875" customWidth="1"/>
-    <col min="6" max="6" width="9.84375" customWidth="1"/>
-    <col min="7" max="7" width="10.3046875" customWidth="1"/>
-    <col min="8" max="8" width="12.3046875" customWidth="1"/>
-    <col min="10" max="10" width="11.3046875" customWidth="1"/>
-    <col min="11" max="11" width="10.15234375" customWidth="1"/>
-    <col min="22" max="32" width="9.15234375" customWidth="1"/>
+    <col min="2" max="2" width="12.3984375" customWidth="1"/>
+    <col min="3" max="3" width="10.53125" customWidth="1"/>
+    <col min="4" max="4" width="9.86328125" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" customWidth="1"/>
+    <col min="6" max="6" width="9.86328125" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" customWidth="1"/>
+    <col min="11" max="11" width="10.1328125" customWidth="1"/>
+    <col min="22" max="32" width="9.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B6" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="17.600000000000001" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:6" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="9" t="s">
         <v>6</v>
       </c>
@@ -5894,7 +5894,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="17.600000000000001" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:6" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="6" t="s">
         <v>8</v>
       </c>
@@ -5910,7 +5910,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="17.600000000000001" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:6" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="6" t="s">
         <v>7</v>
       </c>
@@ -5926,7 +5926,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="17.600000000000001" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:6" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="11" t="s">
         <v>9</v>
       </c>
@@ -5944,7 +5944,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="17.600000000000001" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:6" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="11" t="s">
         <v>11</v>
       </c>
@@ -5962,7 +5962,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="17.149999999999999" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:6" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="6" t="s">
         <v>14</v>
       </c>
@@ -5980,7 +5980,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="17.149999999999999" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:6" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="6" t="s">
         <v>13</v>
       </c>
@@ -5998,7 +5998,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="17.149999999999999" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:6" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="11" t="s">
         <v>15</v>
       </c>
@@ -6011,7 +6011,7 @@
       <c r="E14" s="4"/>
       <c r="F14" s="10"/>
     </row>
-    <row r="15" spans="1:6" ht="17.149999999999999" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:6" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="12" t="s">
         <v>16</v>
       </c>
@@ -6024,12 +6024,12 @@
       <c r="E15" s="4"/>
       <c r="F15" s="10"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:4" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B18" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="2:4" ht="15" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:4" ht="15.4" outlineLevel="1" x14ac:dyDescent="0.5">
       <c r="B19" s="6" t="s">
         <v>21</v>
       </c>
@@ -6040,7 +6040,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="2:4" ht="14.15" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:4" ht="15" outlineLevel="1" x14ac:dyDescent="0.5">
       <c r="B20" s="11" t="s">
         <v>22</v>
       </c>
@@ -6051,7 +6051,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="2:4" ht="14.15" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:4" ht="15" outlineLevel="1" x14ac:dyDescent="0.5">
       <c r="B21" s="11" t="s">
         <v>36</v>
       </c>
@@ -6062,7 +6062,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="2:4" ht="14.15" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:4" ht="15" outlineLevel="1" x14ac:dyDescent="0.5">
       <c r="B22" s="11" t="s">
         <v>37</v>
       </c>
@@ -6073,7 +6073,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="2:4" ht="14.15" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:4" ht="15" outlineLevel="1" x14ac:dyDescent="0.5">
       <c r="B23" s="11" t="s">
         <v>48</v>
       </c>
@@ -6084,12 +6084,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="2:4" ht="14.15" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:4" ht="15" outlineLevel="1" x14ac:dyDescent="0.5">
       <c r="B26" s="13" t="s">
         <v>0</v>
       </c>
@@ -6100,7 +6100,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="2:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:4" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B27" s="14">
         <v>23</v>
       </c>
@@ -6111,12 +6111,12 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:4" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B29" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="2:4" ht="15" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:4" ht="15.4" outlineLevel="1" x14ac:dyDescent="0.5">
       <c r="B30" s="6" t="s">
         <v>32</v>
       </c>
@@ -6127,7 +6127,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="2:4" ht="14.15" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:4" ht="15" outlineLevel="1" x14ac:dyDescent="0.5">
       <c r="B31" s="6" t="s">
         <v>33</v>
       </c>
@@ -6138,7 +6138,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="2:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:4" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B32" s="6" t="s">
         <v>34</v>
       </c>
@@ -6148,7 +6148,7 @@
       </c>
       <c r="D32" s="6"/>
     </row>
-    <row r="33" spans="1:8" ht="12.9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" ht="13.15" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B33" s="6" t="s">
         <v>46</v>
       </c>
@@ -6160,7 +6160,7 @@
       </c>
       <c r="H33" s="3"/>
     </row>
-    <row r="34" spans="1:8" ht="15" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:8" ht="15.4" outlineLevel="1" x14ac:dyDescent="0.5">
       <c r="B34" s="6" t="s">
         <v>39</v>
       </c>
@@ -6172,7 +6172,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="14.15" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:8" ht="15" outlineLevel="1" x14ac:dyDescent="0.5">
       <c r="B35" s="6" t="s">
         <v>45</v>
       </c>
@@ -6182,17 +6182,17 @@
       </c>
       <c r="D35" s="6"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="38" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A38" s="19">
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="14.15" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:8" ht="15" outlineLevel="1" x14ac:dyDescent="0.5">
       <c r="B39" s="17" t="s">
         <v>40</v>
       </c>
@@ -6212,7 +6212,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="40" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B40" s="18">
         <v>0.1</v>
       </c>
@@ -6229,15 +6229,15 @@
         <v>1.3783288792699601E-3</v>
       </c>
       <c r="F40" s="23">
-        <f>[1]!ESP_dP_atm(B40,fw_,Pin_,,num_stages_,freq_,ESP_ID_,gamma_gas_)</f>
-        <v>0</v>
-      </c>
-      <c r="G40" s="23" t="e">
-        <f>[1]!ESP_dP_atm(B40,fw_,Pin_,Pout_,num_stages_,freq_,ESP_ID_,gamma_gas_,,,,,,,,,,,,,,,0)</f>
-        <v>#VALUE!</v>
+        <f>[1]!ESP_dP_atm(B40,fw_,Pin_,num_stages_,freq_,ESP_ID_,gamma_gas_)</f>
+        <v>193.167565601185</v>
+      </c>
+      <c r="G40" s="23">
+        <f>[1]!ESP_dP_atm(B40,fw_,Pin_,num_stages_,freq_,ESP_ID_,gamma_gas_,,,,,,,,,,,,,,,0)</f>
+        <v>80.997704365613529</v>
       </c>
     </row>
-    <row r="41" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B41" s="18">
         <v>1</v>
       </c>
@@ -6254,15 +6254,15 @@
         <v>1.5089283213882152E-2</v>
       </c>
       <c r="F41" s="23">
-        <f>[1]!ESP_dP_atm(B41,fw_,Pin_,,num_stages_,freq_,ESP_ID_,gamma_gas_)</f>
-        <v>0</v>
-      </c>
-      <c r="G41" s="23" t="e">
-        <f>[1]!ESP_dP_atm(B41,fw_,Pin_,Pout_,num_stages_,freq_,ESP_ID_,gamma_gas_,,,,,,,,,,,,,,,0)</f>
-        <v>#VALUE!</v>
+        <f>[1]!ESP_dP_atm(B41,fw_,Pin_,num_stages_,freq_,ESP_ID_,gamma_gas_)</f>
+        <v>192.05573901064798</v>
+      </c>
+      <c r="G41" s="23">
+        <f>[1]!ESP_dP_atm(B41,fw_,Pin_,num_stages_,freq_,ESP_ID_,gamma_gas_,,,,,,,,,,,,,,,0)</f>
+        <v>80.664476310836065</v>
       </c>
     </row>
-    <row r="42" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B42" s="18">
         <f>Qmax/n_</f>
         <v>3.8</v>
@@ -6280,15 +6280,15 @@
         <v>5.6842996643164168E-2</v>
       </c>
       <c r="F42" s="23">
-        <f>[1]!ESP_dP_atm(B42,fw_,Pin_,,num_stages_,freq_,ESP_ID_,gamma_gas_)</f>
-        <v>0</v>
-      </c>
-      <c r="G42" s="23" t="e">
-        <f>[1]!ESP_dP_atm(B42,fw_,Pin_,Pout_,num_stages_,freq_,ESP_ID_,gamma_gas_,,,,,,,,,,,,,,,0)</f>
-        <v>#VALUE!</v>
+        <f>[1]!ESP_dP_atm(B42,fw_,Pin_,num_stages_,freq_,ESP_ID_,gamma_gas_)</f>
+        <v>189.42368584622744</v>
+      </c>
+      <c r="G42" s="23">
+        <f>[1]!ESP_dP_atm(B42,fw_,Pin_,num_stages_,freq_,ESP_ID_,gamma_gas_,,,,,,,,,,,,,,,0)</f>
+        <v>80.033026681281072</v>
       </c>
     </row>
-    <row r="43" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B43" s="18">
         <f t="shared" ref="B43:B66" si="0">Qmax/n_+B42</f>
         <v>7.6</v>
@@ -6306,15 +6306,15 @@
         <v>0.11137299570511693</v>
       </c>
       <c r="F43" s="23">
-        <f>[1]!ESP_dP_atm(B43,fw_,Pin_,,num_stages_,freq_,ESP_ID_,gamma_gas_)</f>
-        <v>0</v>
-      </c>
-      <c r="G43" s="23" t="e">
-        <f>[1]!ESP_dP_atm(B43,fw_,Pin_,Pout_,num_stages_,freq_,ESP_ID_,gamma_gas_,,,,,,,,,,,,,,,0)</f>
-        <v>#VALUE!</v>
+        <f>[1]!ESP_dP_atm(B43,fw_,Pin_,num_stages_,freq_,ESP_ID_,gamma_gas_)</f>
+        <v>187.19949892065779</v>
+      </c>
+      <c r="G43" s="23">
+        <f>[1]!ESP_dP_atm(B43,fw_,Pin_,num_stages_,freq_,ESP_ID_,gamma_gas_,,,,,,,,,,,,,,,0)</f>
+        <v>78.492659389830322</v>
       </c>
     </row>
-    <row r="44" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B44" s="18">
         <f t="shared" si="0"/>
         <v>11.399999999999999</v>
@@ -6332,15 +6332,15 @@
         <v>0.16343338966176585</v>
       </c>
       <c r="F44" s="23">
-        <f>[1]!ESP_dP_atm(B44,fw_,Pin_,,num_stages_,freq_,ESP_ID_,gamma_gas_)</f>
-        <v>0</v>
-      </c>
-      <c r="G44" s="23" t="e">
-        <f>[1]!ESP_dP_atm(B44,fw_,Pin_,Pout_,num_stages_,freq_,ESP_ID_,gamma_gas_,,,,,,,,,,,,,,,0)</f>
-        <v>#VALUE!</v>
+        <f>[1]!ESP_dP_atm(B44,fw_,Pin_,num_stages_,freq_,ESP_ID_,gamma_gas_)</f>
+        <v>185.6523807450929</v>
+      </c>
+      <c r="G44" s="23">
+        <f>[1]!ESP_dP_atm(B44,fw_,Pin_,num_stages_,freq_,ESP_ID_,gamma_gas_,,,,,,,,,,,,,,,0)</f>
+        <v>75.962747990346898</v>
       </c>
     </row>
-    <row r="45" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B45" s="18">
         <f t="shared" si="0"/>
         <v>15.2</v>
@@ -6358,15 +6358,15 @@
         <v>0.21290206516683818</v>
       </c>
       <c r="F45" s="23">
-        <f>[1]!ESP_dP_atm(B45,fw_,Pin_,,num_stages_,freq_,ESP_ID_,gamma_gas_)</f>
-        <v>0</v>
-      </c>
-      <c r="G45" s="23" t="e">
-        <f>[1]!ESP_dP_atm(B45,fw_,Pin_,Pout_,num_stages_,freq_,ESP_ID_,gamma_gas_,,,,,,,,,,,,,,,0)</f>
-        <v>#VALUE!</v>
+        <f>[1]!ESP_dP_atm(B45,fw_,Pin_,num_stages_,freq_,ESP_ID_,gamma_gas_)</f>
+        <v>184.03755305835637</v>
+      </c>
+      <c r="G45" s="23">
+        <f>[1]!ESP_dP_atm(B45,fw_,Pin_,num_stages_,freq_,ESP_ID_,gamma_gas_,,,,,,,,,,,,,,,0)</f>
+        <v>72.761292151579667</v>
       </c>
     </row>
-    <row r="46" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B46" s="18">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -6384,15 +6384,15 @@
         <v>0.25955306185328036</v>
       </c>
       <c r="F46" s="23">
-        <f>[1]!ESP_dP_atm(B46,fw_,Pin_,,num_stages_,freq_,ESP_ID_,gamma_gas_)</f>
-        <v>0</v>
-      </c>
-      <c r="G46" s="23" t="e">
-        <f>[1]!ESP_dP_atm(B46,fw_,Pin_,Pout_,num_stages_,freq_,ESP_ID_,gamma_gas_,,,,,,,,,,,,,,,0)</f>
-        <v>#VALUE!</v>
+        <f>[1]!ESP_dP_atm(B46,fw_,Pin_,num_stages_,freq_,ESP_ID_,gamma_gas_)</f>
+        <v>181.79508307349863</v>
+      </c>
+      <c r="G46" s="23">
+        <f>[1]!ESP_dP_atm(B46,fw_,Pin_,num_stages_,freq_,ESP_ID_,gamma_gas_,,,,,,,,,,,,,,,0)</f>
+        <v>69.091007613062402</v>
       </c>
     </row>
-    <row r="47" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B47" s="18">
         <f t="shared" si="0"/>
         <v>22.8</v>
@@ -6410,15 +6410,15 @@
         <v>0.30307223452367105</v>
       </c>
       <c r="F47" s="23">
-        <f>[1]!ESP_dP_atm(B47,fw_,Pin_,,num_stages_,freq_,ESP_ID_,gamma_gas_)</f>
-        <v>0</v>
-      </c>
-      <c r="G47" s="23" t="e">
-        <f>[1]!ESP_dP_atm(B47,fw_,Pin_,Pout_,num_stages_,freq_,ESP_ID_,gamma_gas_,,,,,,,,,,,,,,,0)</f>
-        <v>#VALUE!</v>
+        <f>[1]!ESP_dP_atm(B47,fw_,Pin_,num_stages_,freq_,ESP_ID_,gamma_gas_)</f>
+        <v>178.56817870140918</v>
+      </c>
+      <c r="G47" s="23">
+        <f>[1]!ESP_dP_atm(B47,fw_,Pin_,num_stages_,freq_,ESP_ID_,gamma_gas_,,,,,,,,,,,,,,,0)</f>
+        <v>65.064479864165051</v>
       </c>
     </row>
-    <row r="48" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B48" s="18">
         <f t="shared" si="0"/>
         <v>26.6</v>
@@ -6436,15 +6436,15 @@
         <v>0.34307291534063378</v>
       </c>
       <c r="F48" s="23">
-        <f>[1]!ESP_dP_atm(B48,fw_,Pin_,,num_stages_,freq_,ESP_ID_,gamma_gas_)</f>
-        <v>0</v>
-      </c>
-      <c r="G48" s="23" t="e">
-        <f>[1]!ESP_dP_atm(B48,fw_,Pin_,Pout_,num_stages_,freq_,ESP_ID_,gamma_gas_,,,,,,,,,,,,,,,0)</f>
-        <v>#VALUE!</v>
+        <f>[1]!ESP_dP_atm(B48,fw_,Pin_,num_stages_,freq_,ESP_ID_,gamma_gas_)</f>
+        <v>174.11287816676179</v>
+      </c>
+      <c r="G48" s="23">
+        <f>[1]!ESP_dP_atm(B48,fw_,Pin_,num_stages_,freq_,ESP_ID_,gamma_gas_,,,,,,,,,,,,,,,0)</f>
+        <v>60.735240164768442</v>
       </c>
     </row>
-    <row r="49" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B49" s="18">
         <f t="shared" si="0"/>
         <v>30.400000000000002</v>
@@ -6462,15 +6462,15 @@
         <v>0.37911157601725087</v>
       </c>
       <c r="F49" s="23">
-        <f>[1]!ESP_dP_atm(B49,fw_,Pin_,,num_stages_,freq_,ESP_ID_,gamma_gas_)</f>
-        <v>0</v>
-      </c>
-      <c r="G49" s="23" t="e">
-        <f>[1]!ESP_dP_atm(B49,fw_,Pin_,Pout_,num_stages_,freq_,ESP_ID_,gamma_gas_,,,,,,,,,,,,,,,0)</f>
-        <v>#VALUE!</v>
+        <f>[1]!ESP_dP_atm(B49,fw_,Pin_,num_stages_,freq_,ESP_ID_,gamma_gas_)</f>
+        <v>168.27681039834169</v>
+      </c>
+      <c r="G49" s="23">
+        <f>[1]!ESP_dP_atm(B49,fw_,Pin_,num_stages_,freq_,ESP_ID_,gamma_gas_,,,,,,,,,,,,,,,0)</f>
+        <v>56.120204478928763</v>
       </c>
     </row>
-    <row r="50" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B50" s="18">
         <f t="shared" si="0"/>
         <v>34.200000000000003</v>
@@ -6488,15 +6488,15 @@
         <v>0.41070349000747569</v>
       </c>
       <c r="F50" s="23">
-        <f>[1]!ESP_dP_atm(B50,fw_,Pin_,,num_stages_,freq_,ESP_ID_,gamma_gas_)</f>
-        <v>0</v>
-      </c>
-      <c r="G50" s="23" t="e">
-        <f>[1]!ESP_dP_atm(B50,fw_,Pin_,Pout_,num_stages_,freq_,ESP_ID_,gamma_gas_,,,,,,,,,,,,,,,0)</f>
-        <v>#VALUE!</v>
+        <f>[1]!ESP_dP_atm(B50,fw_,Pin_,num_stages_,freq_,ESP_ID_,gamma_gas_)</f>
+        <v>161.02402806434631</v>
+      </c>
+      <c r="G50" s="23">
+        <f>[1]!ESP_dP_atm(B50,fw_,Pin_,num_stages_,freq_,ESP_ID_,gamma_gas_,,,,,,,,,,,,,,,0)</f>
+        <v>51.213670971469391</v>
       </c>
     </row>
-    <row r="51" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B51" s="18">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -6514,15 +6514,15 @@
         <v>0.43733839469654595</v>
       </c>
       <c r="F51" s="23">
-        <f>[1]!ESP_dP_atm(B51,fw_,Pin_,,num_stages_,freq_,ESP_ID_,gamma_gas_)</f>
-        <v>0</v>
-      </c>
-      <c r="G51" s="23" t="e">
-        <f>[1]!ESP_dP_atm(B51,fw_,Pin_,Pout_,num_stages_,freq_,ESP_ID_,gamma_gas_,,,,,,,,,,,,,,,0)</f>
-        <v>#VALUE!</v>
+        <f>[1]!ESP_dP_atm(B51,fw_,Pin_,num_stages_,freq_,ESP_ID_,gamma_gas_)</f>
+        <v>152.30124915460007</v>
+      </c>
+      <c r="G51" s="23">
+        <f>[1]!ESP_dP_atm(B51,fw_,Pin_,num_stages_,freq_,ESP_ID_,gamma_gas_,,,,,,,,,,,,,,,0)</f>
+        <v>45.994443329823369</v>
       </c>
     </row>
-    <row r="52" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B52" s="18">
         <f t="shared" si="0"/>
         <v>41.8</v>
@@ -6540,15 +6540,15 @@
         <v>0.458496153591397</v>
       </c>
       <c r="F52" s="23">
-        <f>[1]!ESP_dP_atm(B52,fw_,Pin_,,num_stages_,freq_,ESP_ID_,gamma_gas_)</f>
-        <v>0</v>
-      </c>
-      <c r="G52" s="23" t="e">
-        <f>[1]!ESP_dP_atm(B52,fw_,Pin_,Pout_,num_stages_,freq_,ESP_ID_,gamma_gas_,,,,,,,,,,,,,,,0)</f>
-        <v>#VALUE!</v>
+        <f>[1]!ESP_dP_atm(B52,fw_,Pin_,num_stages_,freq_,ESP_ID_,gamma_gas_)</f>
+        <v>142.09475198631787</v>
+      </c>
+      <c r="G52" s="23">
+        <f>[1]!ESP_dP_atm(B52,fw_,Pin_,num_stages_,freq_,ESP_ID_,gamma_gas_,,,,,,,,,,,,,,,0)</f>
+        <v>40.428774104238883</v>
       </c>
     </row>
-    <row r="53" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B53" s="18">
         <f t="shared" si="0"/>
         <v>45.599999999999994</v>
@@ -6566,15 +6566,15 @@
         <v>0.4736624185110746</v>
       </c>
       <c r="F53" s="23">
-        <f>[1]!ESP_dP_atm(B53,fw_,Pin_,,num_stages_,freq_,ESP_ID_,gamma_gas_)</f>
-        <v>0</v>
-      </c>
-      <c r="G53" s="23" t="e">
-        <f>[1]!ESP_dP_atm(B53,fw_,Pin_,Pout_,num_stages_,freq_,ESP_ID_,gamma_gas_,,,,,,,,,,,,,,,0)</f>
-        <v>#VALUE!</v>
+        <f>[1]!ESP_dP_atm(B53,fw_,Pin_,num_stages_,freq_,ESP_ID_,gamma_gas_)</f>
+        <v>130.33158789495064</v>
+      </c>
+      <c r="G53" s="23">
+        <f>[1]!ESP_dP_atm(B53,fw_,Pin_,num_stages_,freq_,ESP_ID_,gamma_gas_,,,,,,,,,,,,,,,0)</f>
+        <v>34.470900366546324</v>
       </c>
     </row>
-    <row r="54" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B54" s="18">
         <f t="shared" si="0"/>
         <v>49.399999999999991</v>
@@ -6592,15 +6592,15 @@
         <v>0.48234429177714827</v>
       </c>
       <c r="F54" s="23">
-        <f>[1]!ESP_dP_atm(B54,fw_,Pin_,,num_stages_,freq_,ESP_ID_,gamma_gas_)</f>
-        <v>0</v>
-      </c>
-      <c r="G54" s="23" t="e">
-        <f>[1]!ESP_dP_atm(B54,fw_,Pin_,Pout_,num_stages_,freq_,ESP_ID_,gamma_gas_,,,,,,,,,,,,,,,0)</f>
-        <v>#VALUE!</v>
+        <f>[1]!ESP_dP_atm(B54,fw_,Pin_,num_stages_,freq_,ESP_ID_,gamma_gas_)</f>
+        <v>116.75652711741765</v>
+      </c>
+      <c r="G54" s="23">
+        <f>[1]!ESP_dP_atm(B54,fw_,Pin_,num_stages_,freq_,ESP_ID_,gamma_gas_,,,,,,,,,,,,,,,0)</f>
+        <v>28.062059313354602</v>
       </c>
     </row>
-    <row r="55" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B55" s="18">
         <f t="shared" si="0"/>
         <v>53.199999999999989</v>
@@ -6618,15 +6618,15 @@
         <v>0.48408598840412387</v>
       </c>
       <c r="F55" s="23">
-        <f>[1]!ESP_dP_atm(B55,fw_,Pin_,,num_stages_,freq_,ESP_ID_,gamma_gas_)</f>
-        <v>0</v>
-      </c>
-      <c r="G55" s="23" t="e">
-        <f>[1]!ESP_dP_atm(B55,fw_,Pin_,Pout_,num_stages_,freq_,ESP_ID_,gamma_gas_,,,,,,,,,,,,,,,0)</f>
-        <v>#VALUE!</v>
+        <f>[1]!ESP_dP_atm(B55,fw_,Pin_,num_stages_,freq_,ESP_ID_,gamma_gas_)</f>
+        <v>100.69240204384937</v>
+      </c>
+      <c r="G55" s="23">
+        <f>[1]!ESP_dP_atm(B55,fw_,Pin_,num_stages_,freq_,ESP_ID_,gamma_gas_,,,,,,,,,,,,,,,0)</f>
+        <v>21.12833289968485</v>
       </c>
     </row>
-    <row r="56" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B56" s="18">
         <f t="shared" si="0"/>
         <v>56.999999999999986</v>
@@ -6644,15 +6644,15 @@
         <v>0.47848449828985762</v>
       </c>
       <c r="F56" s="23">
-        <f>[1]!ESP_dP_atm(B56,fw_,Pin_,,num_stages_,freq_,ESP_ID_,gamma_gas_)</f>
-        <v>0</v>
-      </c>
-      <c r="G56" s="23" t="e">
-        <f>[1]!ESP_dP_atm(B56,fw_,Pin_,Pout_,num_stages_,freq_,ESP_ID_,gamma_gas_,,,,,,,,,,,,,,,0)</f>
-        <v>#VALUE!</v>
+        <f>[1]!ESP_dP_atm(B56,fw_,Pin_,num_stages_,freq_,ESP_ID_,gamma_gas_)</f>
+        <v>80.266429005822687</v>
+      </c>
+      <c r="G56" s="23">
+        <f>[1]!ESP_dP_atm(B56,fw_,Pin_,num_stages_,freq_,ESP_ID_,gamma_gas_,,,,,,,,,,,,,,,0)</f>
+        <v>13.577323065370706</v>
       </c>
     </row>
-    <row r="57" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B57" s="18">
         <f t="shared" si="0"/>
         <v>60.799999999999983</v>
@@ -6670,15 +6670,15 @@
         <v>0.46520524840596722</v>
       </c>
       <c r="F57" s="23">
-        <f>[1]!ESP_dP_atm(B57,fw_,Pin_,,num_stages_,freq_,ESP_ID_,gamma_gas_)</f>
-        <v>0</v>
-      </c>
-      <c r="G57" s="23" t="e">
-        <f>[1]!ESP_dP_atm(B57,fw_,Pin_,Pout_,num_stages_,freq_,ESP_ID_,gamma_gas_,,,,,,,,,,,,,,,0)</f>
-        <v>#VALUE!</v>
+        <f>[1]!ESP_dP_atm(B57,fw_,Pin_,num_stages_,freq_,ESP_ID_,gamma_gas_)</f>
+        <v>46.934496505431184</v>
+      </c>
+      <c r="G57" s="23">
+        <f>[1]!ESP_dP_atm(B57,fw_,Pin_,num_stages_,freq_,ESP_ID_,gamma_gas_,,,,,,,,,,,,,,,0)</f>
+        <v>5.2933241746071076</v>
       </c>
     </row>
-    <row r="58" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B58" s="18">
         <f t="shared" si="0"/>
         <v>64.59999999999998</v>
@@ -6696,15 +6696,15 @@
         <v>0.44399776498824745</v>
       </c>
       <c r="F58" s="23">
-        <f>[1]!ESP_dP_atm(B58,fw_,Pin_,,num_stages_,freq_,ESP_ID_,gamma_gas_)</f>
+        <f>[1]!ESP_dP_atm(B58,fw_,Pin_,num_stages_,freq_,ESP_ID_,gamma_gas_)</f>
         <v>0</v>
       </c>
-      <c r="G58" s="23" t="e">
-        <f>[1]!ESP_dP_atm(B58,fw_,Pin_,Pout_,num_stages_,freq_,ESP_ID_,gamma_gas_,,,,,,,,,,,,,,,0)</f>
-        <v>#VALUE!</v>
+      <c r="G58" s="23">
+        <f>[1]!ESP_dP_atm(B58,fw_,Pin_,num_stages_,freq_,ESP_ID_,gamma_gas_,,,,,,,,,,,,,,,0)</f>
+        <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B59" s="18">
         <f t="shared" si="0"/>
         <v>68.399999999999977</v>
@@ -6722,15 +6722,15 @@
         <v>0.4147113357270813</v>
       </c>
       <c r="F59" s="23">
-        <f>[1]!ESP_dP_atm(B59,fw_,Pin_,,num_stages_,freq_,ESP_ID_,gamma_gas_)</f>
+        <f>[1]!ESP_dP_atm(B59,fw_,Pin_,num_stages_,freq_,ESP_ID_,gamma_gas_)</f>
         <v>0</v>
       </c>
-      <c r="G59" s="23" t="e">
-        <f>[1]!ESP_dP_atm(B59,fw_,Pin_,Pout_,num_stages_,freq_,ESP_ID_,gamma_gas_,,,,,,,,,,,,,,,0)</f>
-        <v>#VALUE!</v>
+      <c r="G59" s="23">
+        <f>[1]!ESP_dP_atm(B59,fw_,Pin_,num_stages_,freq_,ESP_ID_,gamma_gas_,,,,,,,,,,,,,,,0)</f>
+        <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B60" s="18">
         <f t="shared" si="0"/>
         <v>72.199999999999974</v>
@@ -6748,15 +6748,15 @@
         <v>0.37731067195785395</v>
       </c>
       <c r="F60" s="23">
-        <f>[1]!ESP_dP_atm(B60,fw_,Pin_,,num_stages_,freq_,ESP_ID_,gamma_gas_)</f>
+        <f>[1]!ESP_dP_atm(B60,fw_,Pin_,num_stages_,freq_,ESP_ID_,gamma_gas_)</f>
         <v>0</v>
       </c>
-      <c r="G60" s="23" t="e">
-        <f>[1]!ESP_dP_atm(B60,fw_,Pin_,Pout_,num_stages_,freq_,ESP_ID_,gamma_gas_,,,,,,,,,,,,,,,0)</f>
-        <v>#VALUE!</v>
+      <c r="G60" s="23">
+        <f>[1]!ESP_dP_atm(B60,fw_,Pin_,num_stages_,freq_,ESP_ID_,gamma_gas_,,,,,,,,,,,,,,,0)</f>
+        <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B61" s="18">
         <f t="shared" si="0"/>
         <v>75.999999999999972</v>
@@ -6774,15 +6774,15 @@
         <v>0.33189157085136545</v>
       </c>
       <c r="F61" s="23">
-        <f>[1]!ESP_dP_atm(B61,fw_,Pin_,,num_stages_,freq_,ESP_ID_,gamma_gas_)</f>
+        <f>[1]!ESP_dP_atm(B61,fw_,Pin_,num_stages_,freq_,ESP_ID_,gamma_gas_)</f>
         <v>0</v>
       </c>
-      <c r="G61" s="23" t="e">
-        <f>[1]!ESP_dP_atm(B61,fw_,Pin_,Pout_,num_stages_,freq_,ESP_ID_,gamma_gas_,,,,,,,,,,,,,,,0)</f>
-        <v>#VALUE!</v>
+      <c r="G61" s="23">
+        <f>[1]!ESP_dP_atm(B61,fw_,Pin_,num_stages_,freq_,ESP_ID_,gamma_gas_,,,,,,,,,,,,,,,0)</f>
+        <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B62" s="18">
         <f t="shared" si="0"/>
         <v>79.799999999999969</v>
@@ -6800,15 +6800,15 @@
         <v>0.27869657760424404</v>
       </c>
       <c r="F62" s="23">
-        <f>[1]!ESP_dP_atm(B62,fw_,Pin_,,num_stages_,freq_,ESP_ID_,gamma_gas_)</f>
+        <f>[1]!ESP_dP_atm(B62,fw_,Pin_,num_stages_,freq_,ESP_ID_,gamma_gas_)</f>
         <v>0</v>
       </c>
-      <c r="G62" s="23" t="e">
-        <f>[1]!ESP_dP_atm(B62,fw_,Pin_,Pout_,num_stages_,freq_,ESP_ID_,gamma_gas_,,,,,,,,,,,,,,,0)</f>
-        <v>#VALUE!</v>
+      <c r="G62" s="23">
+        <f>[1]!ESP_dP_atm(B62,fw_,Pin_,num_stages_,freq_,ESP_ID_,gamma_gas_,,,,,,,,,,,,,,,0)</f>
+        <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B63" s="18">
         <f t="shared" si="0"/>
         <v>83.599999999999966</v>
@@ -6826,15 +6826,15 @@
         <v>0.21813064762935908</v>
       </c>
       <c r="F63" s="23">
-        <f>[1]!ESP_dP_atm(B63,fw_,Pin_,,num_stages_,freq_,ESP_ID_,gamma_gas_)</f>
+        <f>[1]!ESP_dP_atm(B63,fw_,Pin_,num_stages_,freq_,ESP_ID_,gamma_gas_)</f>
         <v>0</v>
       </c>
-      <c r="G63" s="23" t="e">
-        <f>[1]!ESP_dP_atm(B63,fw_,Pin_,Pout_,num_stages_,freq_,ESP_ID_,gamma_gas_,,,,,,,,,,,,,,,0)</f>
-        <v>#VALUE!</v>
+      <c r="G63" s="23">
+        <f>[1]!ESP_dP_atm(B63,fw_,Pin_,num_stages_,freq_,ESP_ID_,gamma_gas_,,,,,,,,,,,,,,,0)</f>
+        <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B64" s="18">
         <f t="shared" si="0"/>
         <v>87.399999999999963</v>
@@ -6852,15 +6852,15 @@
         <v>0.15077680874623345</v>
       </c>
       <c r="F64" s="23">
-        <f>[1]!ESP_dP_atm(B64,fw_,Pin_,,num_stages_,freq_,ESP_ID_,gamma_gas_)</f>
+        <f>[1]!ESP_dP_atm(B64,fw_,Pin_,num_stages_,freq_,ESP_ID_,gamma_gas_)</f>
         <v>0</v>
       </c>
-      <c r="G64" s="23" t="e">
-        <f>[1]!ESP_dP_atm(B64,fw_,Pin_,Pout_,num_stages_,freq_,ESP_ID_,gamma_gas_,,,,,,,,,,,,,,,0)</f>
-        <v>#VALUE!</v>
+      <c r="G64" s="23">
+        <f>[1]!ESP_dP_atm(B64,fw_,Pin_,num_stages_,freq_,ESP_ID_,gamma_gas_,,,,,,,,,,,,,,,0)</f>
+        <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B65" s="18">
         <f t="shared" si="0"/>
         <v>91.19999999999996</v>
@@ -6878,15 +6878,15 @@
         <v>7.7411823371458244E-2</v>
       </c>
       <c r="F65" s="23">
-        <f>[1]!ESP_dP_atm(B65,fw_,Pin_,,num_stages_,freq_,ESP_ID_,gamma_gas_)</f>
+        <f>[1]!ESP_dP_atm(B65,fw_,Pin_,num_stages_,freq_,ESP_ID_,gamma_gas_)</f>
         <v>0</v>
       </c>
-      <c r="G65" s="23" t="e">
-        <f>[1]!ESP_dP_atm(B65,fw_,Pin_,Pout_,num_stages_,freq_,ESP_ID_,gamma_gas_,,,,,,,,,,,,,,,0)</f>
-        <v>#VALUE!</v>
+      <c r="G65" s="23">
+        <f>[1]!ESP_dP_atm(B65,fw_,Pin_,num_stages_,freq_,ESP_ID_,gamma_gas_,,,,,,,,,,,,,,,0)</f>
+        <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B66" s="18">
         <f t="shared" si="0"/>
         <v>94.999999999999957</v>
@@ -6904,36 +6904,36 @@
         <v>0</v>
       </c>
       <c r="F66" s="23">
-        <f>[1]!ESP_dP_atm(B66,fw_,Pin_,,num_stages_,freq_,ESP_ID_,gamma_gas_)</f>
+        <f>[1]!ESP_dP_atm(B66,fw_,Pin_,num_stages_,freq_,ESP_ID_,gamma_gas_)</f>
         <v>0</v>
       </c>
-      <c r="G66" s="23" t="e">
-        <f>[1]!ESP_dP_atm(B66,fw_,Pin_,Pout_,num_stages_,freq_,ESP_ID_,gamma_gas_,,,,,,,,,,,,,,,0)</f>
-        <v>#VALUE!</v>
+      <c r="G66" s="23">
+        <f>[1]!ESP_dP_atm(B66,fw_,Pin_,num_stages_,freq_,ESP_ID_,gamma_gas_,,,,,,,,,,,,,,,0)</f>
+        <v>0</v>
       </c>
     </row>
-    <row r="67" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="68" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="69" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="70" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="71" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="72" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="73" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="74" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="75" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="76" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="77" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="78" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="79" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="80" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="81" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="82" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="83" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="84" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="85" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="86" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="87" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="88" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="67" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.35"/>
+    <row r="68" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.35"/>
+    <row r="69" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.35"/>
+    <row r="70" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.35"/>
+    <row r="71" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.35"/>
+    <row r="72" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.35"/>
+    <row r="73" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.35"/>
+    <row r="74" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.35"/>
+    <row r="75" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.35"/>
+    <row r="76" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.35"/>
+    <row r="77" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.35"/>
+    <row r="78" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.35"/>
+    <row r="79" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.35"/>
+    <row r="80" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.35"/>
+    <row r="81" outlineLevel="1" x14ac:dyDescent="0.35"/>
+    <row r="82" outlineLevel="1" x14ac:dyDescent="0.35"/>
+    <row r="83" outlineLevel="1" x14ac:dyDescent="0.35"/>
+    <row r="84" outlineLevel="1" x14ac:dyDescent="0.35"/>
+    <row r="85" outlineLevel="1" x14ac:dyDescent="0.35"/>
+    <row r="86" outlineLevel="1" x14ac:dyDescent="0.35"/>
+    <row r="87" outlineLevel="1" x14ac:dyDescent="0.35"/>
+    <row r="88" outlineLevel="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
